--- a/documents/需求计划交付详单.xlsx
+++ b/documents/需求计划交付详单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Artefact\Carrefour\SOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/housegong/OneDrive/Artefact/Carrefour/SOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{73E1E41B-2F28-4AD8-A220-2A1E7D7627A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E1D04D4B-D0EE-436A-952B-B0EE6210B6BA}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{73E1E41B-2F28-4AD8-A220-2A1E7D7627A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{586F5C71-1BC6-7343-9EEA-8788D7C07D3A}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="3810" windowWidth="15650" windowHeight="13270" xr2:uid="{181C09F4-EC19-4B55-87FE-828B8D07A1F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{181C09F4-EC19-4B55-87FE-828B8D07A1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
   <si>
     <t>需求计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,10 +351,6 @@
   </si>
   <si>
     <t>Word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载入或更新门店订单到货时间的软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,14 +362,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,18 +377,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -430,7 +424,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,23 +736,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0801309-CD80-45B4-BF7C-6C96E10CA6B3}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,12 +1155,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,16 +1186,16 @@
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,17 +1205,17 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,17 +1225,17 @@
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,19 +1243,19 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,39 +1263,39 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,19 +1303,19 @@
         <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,16 +1326,16 @@
         <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,16 +1346,16 @@
         <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,52 +1366,32 @@
         <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="1" t="s">
         <v>85</v>
       </c>
     </row>

--- a/documents/需求计划交付详单.xlsx
+++ b/documents/需求计划交付详单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/housegong/OneDrive/Artefact/Carrefour/SOW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f20bf881a3cef5d/Artefact/Carrefour/SOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{73E1E41B-2F28-4AD8-A220-2A1E7D7627A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{586F5C71-1BC6-7343-9EEA-8788D7C07D3A}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{73E1E41B-2F28-4AD8-A220-2A1E7D7627A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{443C0A76-B90F-B941-9743-4F016F06485F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{181C09F4-EC19-4B55-87FE-828B8D07A1F5}"/>
   </bookViews>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算服务路统计的语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>carrefour_forecast_2.11-0.1.jar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +348,9 @@
   <si>
     <t>Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算服务率统计的语句</t>
   </si>
 </sst>
 </file>
@@ -738,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0801309-CD80-45B4-BF7C-6C96E10CA6B3}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1029,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -1246,7 +1245,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>60</v>
@@ -1272,7 +1271,7 @@
         <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1312,7 +1311,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1332,7 +1331,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1352,7 +1351,7 @@
         <v>68</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1392,7 +1391,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/documents/需求计划交付详单.xlsx
+++ b/documents/需求计划交付详单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f20bf881a3cef5d/Artefact/Carrefour/SOW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/housegong/gitlab/Carrefour-China-Supply-Chain-Forecast/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{73E1E41B-2F28-4AD8-A220-2A1E7D7627A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{443C0A76-B90F-B941-9743-4F016F06485F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F9673-60FA-044B-8A0E-2BFF215AC5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{181C09F4-EC19-4B55-87FE-828B8D07A1F5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
   <si>
     <t>需求计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>forecast_dm_order.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,18 +314,6 @@
     <t>需求计划订单运维文档 .docx</t>
   </si>
   <si>
-    <t>demand_planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单系统的源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单系统的API文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>html/scaladoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +335,15 @@
   </si>
   <si>
     <t>计算服务率统计的语句</t>
+  </si>
+  <si>
+    <t>需求计划程序API文档</t>
+  </si>
+  <si>
+    <t>包含订单系统的API文档的文件夹</t>
+  </si>
+  <si>
+    <t>包含订单系统的源代码的文件夹</t>
   </si>
 </sst>
 </file>
@@ -735,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0801309-CD80-45B4-BF7C-6C96E10CA6B3}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,10 +741,11 @@
     <col min="4" max="4" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -770,11 +764,8 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,267 +802,267 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1099,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1279,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1319,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1339,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
